--- a/src/static/ippan_ken2.xlsx
+++ b/src/static/ippan_ken2.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet99" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="一般資産調査票" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -402,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ25"/>
+  <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,185 +488,200 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>沿岸コード</t>
+          <t>河川海岸コード</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>河川沿岸コード</t>
+          <t>地上地下区分コード</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>地上地下区分コード</t>
+          <t>地下空間の利用形態コード</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>地下空間の利用形態コード</t>
+          <t>被害建物棟数_床下</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>被害建物棟数_床下</t>
+          <t>被害建物棟数_01から49cm</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>被害建物棟数_01から49cm</t>
+          <t>被害建物棟数_50から99cm</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>被害建物棟数_50から99cm</t>
+          <t>被害建物棟数_100cm以上</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>被害建物棟数_100cm以上</t>
+          <t>被害建物棟数_半壊</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>被害建物棟数_半壊</t>
+          <t>被害建物棟数_全壊</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>被害建物棟数_全壊</t>
+          <t>延床面積</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>延床面積</t>
+          <t>被災世帯数</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
+          <t>被災事業所数</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
           <t>延床面積_床下</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>延床面積_01から49cm</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>延床面積_50から99cm</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>延床面積_100cm以上</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>延床面積_半壊</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>延床面積_全壊</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>被災世帯数_床下</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>被災世帯数_01から49cm</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>被災世帯数_50から99cm</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>被災世帯数_100cm以上</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>被災世帯数_半壊</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
         <is>
           <t>被災世帯数_全壊</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>被災事業所数_床下</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>被災事業所数_01から49cm</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>被災事業所数_50から99cm</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>被災事業所数_100cm以上</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>被災事業所数_半壊</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>被災事業所数_全壊</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
         <is>
           <t>被災従業者数_床下</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>被災従業者数_01から49cm</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>被災従業者数_50から99cm</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>被災従業者数_100cm以上</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>被災従業者数_全壊</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>被災事業所数_床下</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>被災事業所数_01から49cm</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>被災事業所数_50から99cm</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>被災事業所数_100cm以上</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>被災事業所数_全壊</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>農漁家戸数_床下</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>農漁家戸数_01から49cm</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>農漁家戸数_50から99cm</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>農漁家戸数_100cm以上</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>農漁家戸数_全壊</t>
         </is>
@@ -698,6 +713,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>01</t>
@@ -758,13 +778,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S2" t="n">
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -779,17 +797,14 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>10000</v>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
@@ -803,11 +818,11 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>100</v>
       </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
@@ -815,18 +830,24 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -836,12 +857,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -904,10 +930,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S3" t="n">
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -930,9 +954,6 @@
       <c r="Z3" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -961,18 +982,24 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -982,12 +1009,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1050,10 +1082,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S4" t="n">
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1076,9 +1106,6 @@
       <c r="Z4" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1107,18 +1134,24 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1133,7 +1166,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1196,10 +1234,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S5" t="n">
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1222,9 +1258,6 @@
       <c r="Z5" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1253,18 +1286,24 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1274,12 +1313,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1342,13 +1386,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S6" t="n">
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1368,9 +1410,6 @@
       <c r="Z6" t="n">
         <v>0</v>
       </c>
-      <c r="AA6" t="n">
-        <v>10000</v>
-      </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1387,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1399,18 +1438,24 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1420,12 +1465,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1488,10 +1538,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S7" t="n">
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1514,9 +1562,6 @@
       <c r="Z7" t="n">
         <v>0</v>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1545,18 +1590,24 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1571,7 +1622,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1634,10 +1690,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S8" t="n">
+        <v>100</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1660,11 +1714,8 @@
       <c r="Z8" t="n">
         <v>0</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -1682,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1691,18 +1742,24 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1712,12 +1769,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1780,10 +1842,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S9" t="n">
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1806,9 +1866,6 @@
       <c r="Z9" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
@@ -1837,18 +1894,24 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1858,12 +1921,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1926,10 +1994,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S10" t="n">
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1952,9 +2018,6 @@
       <c r="Z10" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
@@ -1983,18 +2046,24 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2009,7 +2078,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2072,10 +2146,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S11" t="n">
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2098,9 +2170,6 @@
       <c r="Z11" t="n">
         <v>0</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
@@ -2129,18 +2198,24 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2150,12 +2225,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2218,13 +2298,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S12" t="n">
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2244,9 +2322,6 @@
       <c r="Z12" t="n">
         <v>0</v>
       </c>
-      <c r="AA12" t="n">
-        <v>10000</v>
-      </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -2263,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -2275,33 +2350,44 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2丁目</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1丁目</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2364,10 +2450,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S13" t="n">
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2390,9 +2474,6 @@
       <c r="Z13" t="n">
         <v>0</v>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
@@ -2421,18 +2502,24 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2447,7 +2534,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2510,10 +2602,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S14" t="n">
+        <v>100</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2536,11 +2626,8 @@
       <c r="Z14" t="n">
         <v>0</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2558,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2567,18 +2654,24 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2593,7 +2686,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2656,10 +2754,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S15" t="n">
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2682,9 +2778,6 @@
       <c r="Z15" t="n">
         <v>0</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
@@ -2713,18 +2806,24 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2734,12 +2833,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2802,10 +2906,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S16" t="n">
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2828,9 +2930,6 @@
       <c r="Z16" t="n">
         <v>0</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
@@ -2859,18 +2958,24 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2885,7 +2990,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2948,10 +3058,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S17" t="n">
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2974,9 +3082,6 @@
       <c r="Z17" t="n">
         <v>0</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
@@ -3005,18 +3110,24 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3031,7 +3142,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3094,10 +3210,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S18" t="n">
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -3120,9 +3234,6 @@
       <c r="Z18" t="n">
         <v>0</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -3151,33 +3262,44 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3丁目</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1丁目</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3240,10 +3362,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S19" t="n">
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3266,9 +3386,6 @@
       <c r="Z19" t="n">
         <v>0</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
@@ -3297,18 +3414,24 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3318,7 +3441,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3326,6 +3449,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>01</t>
@@ -3386,10 +3514,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S20" t="n">
+        <v>100</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3412,11 +3538,8 @@
       <c r="Z20" t="n">
         <v>0</v>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -3434,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -3443,18 +3566,24 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3464,12 +3593,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3532,10 +3666,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S21" t="n">
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3558,9 +3690,6 @@
       <c r="Z21" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
@@ -3589,18 +3718,24 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3610,7 +3745,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3618,6 +3753,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>01</t>
@@ -3678,10 +3818,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S22" t="n">
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3704,9 +3842,6 @@
       <c r="Z22" t="n">
         <v>0</v>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
@@ -3735,18 +3870,24 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3756,7 +3897,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3764,6 +3905,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>01</t>
@@ -3824,13 +3970,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S23" t="n">
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3850,9 +3994,6 @@
       <c r="Z23" t="n">
         <v>0</v>
       </c>
-      <c r="AA23" t="n">
-        <v>10000</v>
-      </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
@@ -3869,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -3881,18 +4022,24 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3902,7 +4049,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3910,6 +4057,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>01</t>
@@ -3970,10 +4122,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S24" t="n">
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -3996,9 +4146,6 @@
       <c r="Z24" t="n">
         <v>0</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
@@ -4027,18 +4174,24 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4048,7 +4201,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4056,6 +4209,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>01</t>
@@ -4116,10 +4274,8 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S25" t="n">
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -4142,9 +4298,6 @@
       <c r="Z25" t="n">
         <v>0</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
       <c r="AB25" t="n">
         <v>0</v>
       </c>
@@ -4173,15 +4326,16 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="F7:I7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>$B$1:$B$10</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>